--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -747,58 +747,58 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
         <v>2</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -813,49 +813,49 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
         <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -864,10 +864,10 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -879,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
@@ -888,10 +888,10 @@
         <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
         <v>23</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
@@ -1681,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1705,7 +1705,7 @@
         <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1759,7 +1759,7 @@
         <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="K8" t="n">
         <v>2.55</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>14.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1881,16 +1881,16 @@
         <v>3.65</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X8" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y8" t="n">
         <v>7.3</v>
@@ -1899,10 +1899,10 @@
         <v>7.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>15.5</v>
@@ -1911,22 +1911,22 @@
         <v>8.75</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
         <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
         <v>45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK8" t="n">
         <v>150</v>
@@ -1938,34 +1938,34 @@
         <v>50</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
         <v>5.6</v>
       </c>
       <c r="AP8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>35</v>
       </c>
       <c r="AS8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>45</v>
@@ -1977,7 +1977,7 @@
         <v>300</v>
       </c>
       <c r="BA8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB8" t="n">
         <v>450</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="I9" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2063,106 +2063,106 @@
         <v>2.52</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W9" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB9" t="n">
         <v>32</v>
       </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>28</v>
-      </c>
       <c r="AC9" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH9" t="n">
         <v>8.25</v>
       </c>
       <c r="AI9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
         <v>14.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>65</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BB9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2567,61 +2567,61 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.44</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.4</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
@@ -2630,25 +2630,25 @@
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
         <v>81</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
@@ -2663,7 +2663,7 @@
         <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN12" t="n">
         <v>5</v>
@@ -2672,46 +2672,46 @@
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2934,82 +2934,82 @@
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
         <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
         <v>11</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
@@ -3030,7 +3030,7 @@
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
         <v>7</v>
@@ -3042,19 +3042,19 @@
         <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>8</v>
@@ -3063,7 +3063,7 @@
         <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
         <v>101</v>
@@ -3072,7 +3072,7 @@
         <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
@@ -3128,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -3179,10 +3179,10 @@
         <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -3200,7 +3200,7 @@
         <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
         <v>101</v>
@@ -3221,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>29</v>
@@ -3239,7 +3239,7 @@
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>41</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -3310,7 +3310,7 @@
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3319,16 +3319,16 @@
         <v>8.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3376,7 +3376,7 @@
         <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3385,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
@@ -3427,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3483,13 +3483,13 @@
         <v>4.25</v>
       </c>
       <c r="I17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>1.98</v>
       </c>
       <c r="K17" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L17" t="n">
         <v>5.7</v>
@@ -3501,7 +3501,7 @@
         <v>8.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
         <v>3.9</v>
@@ -3513,10 +3513,10 @@
         <v>2.15</v>
       </c>
       <c r="S17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -3525,7 +3525,7 @@
         <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X17" t="n">
         <v>7.3</v>
@@ -3546,10 +3546,10 @@
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>70</v>
@@ -3558,10 +3558,10 @@
         <v>500</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="n">
         <v>18.5</v>
@@ -3579,7 +3579,7 @@
         <v>3.35</v>
       </c>
       <c r="AO17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AP17" t="n">
         <v>16</v>
@@ -3588,13 +3588,13 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS17" t="n">
         <v>200</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU17" t="n">
         <v>7.8</v>
@@ -3603,10 +3603,10 @@
         <v>70</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AX17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AY17" t="n">
         <v>35</v>
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L18" t="n">
         <v>4.75</v>
@@ -3680,31 +3680,31 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="R18" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="S18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
@@ -3719,28 +3719,28 @@
         <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
         <v>21</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3764,22 +3764,22 @@
         <v>8</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS18" t="n">
         <v>81</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
         <v>41</v>
@@ -3841,19 +3841,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
         <v>4.75</v>
@@ -3865,16 +3865,16 @@
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3883,10 +3883,10 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -3916,16 +3916,16 @@
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3946,7 +3946,7 @@
         <v>8.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>26</v>
@@ -3955,7 +3955,7 @@
         <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
         <v>3.25</v>
@@ -3979,10 +3979,10 @@
         <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
@@ -4208,55 +4208,55 @@
         <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I21" t="n">
         <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -4268,31 +4268,31 @@
         <v>12</v>
       </c>
       <c r="AB21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="n">
         <v>21</v>
       </c>
-      <c r="AC21" t="n">
-        <v>17</v>
-      </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
@@ -4310,22 +4310,22 @@
         <v>8.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV21" t="n">
         <v>41</v>
@@ -4337,19 +4337,19 @@
         <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4417,10 +4417,10 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="n">
         <v>1.33</v>
@@ -4438,7 +4438,7 @@
         <v>10</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>10</v>
@@ -4447,7 +4447,7 @@
         <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
         <v>26</v>
@@ -4471,7 +4471,7 @@
         <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4480,7 +4480,7 @@
         <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>26</v>
@@ -4489,7 +4489,7 @@
         <v>4.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
@@ -4516,7 +4516,7 @@
         <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
@@ -4751,88 +4751,88 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I24" t="n">
         <v>6.25</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.67</v>
       </c>
-      <c r="R24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y24" t="n">
         <v>8.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA24" t="n">
         <v>11</v>
       </c>
-      <c r="AA24" t="n">
-        <v>12</v>
-      </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>34</v>
@@ -4850,52 +4850,52 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
         <v>7.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
       </c>
       <c r="AS24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY24" t="n">
         <v>29</v>
       </c>
-      <c r="AY24" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
         <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -5479,16 +5479,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H28" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
         <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K28" t="n">
         <v>2.75</v>
@@ -5500,7 +5500,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O28" t="n">
         <v>1.1</v>
@@ -5509,43 +5509,43 @@
         <v>7</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R28" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U28" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V28" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W28" t="n">
         <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
         <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD28" t="n">
         <v>11</v>
@@ -5557,16 +5557,16 @@
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>67</v>
@@ -5578,25 +5578,25 @@
         <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>7</v>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU28" t="n">
         <v>7.5</v>
@@ -5605,13 +5605,13 @@
         <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX28" t="n">
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
         <v>81</v>
@@ -5620,10 +5620,10 @@
         <v>81</v>
       </c>
       <c r="BB28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC28" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD28" t="n">
         <v>176</v>
@@ -6055,10 +6055,10 @@
         <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.55</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
@@ -1678,7 +1678,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1699,13 +1699,13 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1738,7 +1738,7 @@
         <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1839,34 +1839,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>8.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="K8" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1881,37 +1881,37 @@
         <v>3.65</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>7.3</v>
       </c>
       <c r="X8" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AA8" t="n">
         <v>8.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>60</v>
@@ -1920,34 +1920,34 @@
         <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AP8" t="n">
         <v>14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>35</v>
@@ -1956,31 +1956,31 @@
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV8" t="n">
         <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY8" t="n">
         <v>40</v>
       </c>
       <c r="AZ8" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA8" t="n">
         <v>300</v>
       </c>
-      <c r="BA8" t="n">
-        <v>250</v>
-      </c>
       <c r="BB8" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H9" t="n">
         <v>2.92</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2045,7 +2045,7 @@
         <v>7.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
         <v>2.77</v>
@@ -2066,7 +2066,7 @@
         <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>8.25</v>
@@ -2081,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB9" t="n">
         <v>32</v>
@@ -2102,16 +2102,16 @@
         <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
         <v>22</v>
@@ -2120,13 +2120,13 @@
         <v>30</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO9" t="n">
         <v>14.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>65</v>
@@ -2147,10 +2147,10 @@
         <v>45</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>18</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fJePW7FP</t>
+          <t>2P8w94NI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.75</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
         <v>9</v>
       </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
         <v>17</v>
       </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>900</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E3xdRowm</t>
+          <t>fJePW7FP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.05</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
       <c r="AK11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>81</v>
       </c>
-      <c r="AW11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>201</v>
-      </c>
       <c r="BA11" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A77MZu4C</t>
+          <t>E3xdRowm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W12" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2.63</v>
       </c>
-      <c r="W12" t="n">
-        <v>13</v>
-      </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="AU12" t="n">
         <v>10</v>
       </c>
-      <c r="Z12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AV12" t="n">
         <v>81</v>
       </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UV2PSXjS</t>
+          <t>A77MZu4C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,49 +2740,49 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.22</v>
@@ -2791,73 +2791,73 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
         <v>17</v>
       </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
         <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
         <v>19</v>
       </c>
-      <c r="AI13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>13</v>
       </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2869,31 +2869,31 @@
         <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KxkDd3BP</t>
+          <t>UV2PSXjS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>26</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T14" t="n">
         <v>4.5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="U14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW14" t="n">
         <v>6.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>17</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC14" t="n">
         <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>126</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UBvmj1lg</t>
+          <t>KxkDd3BP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,160 +3104,160 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L15" t="n">
         <v>6.5</v>
       </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>7.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>26</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>12</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
         <v>21</v>
       </c>
-      <c r="AC15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AI15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>21</v>
       </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>26</v>
-      </c>
       <c r="AK15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
         <v>101</v>
       </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>81</v>
-      </c>
       <c r="AT15" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
         <v>8.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY15" t="n">
         <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
         <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
         <v>151</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>QJmodyY8</t>
+          <t>UBvmj1lg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>1.22</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K16" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
+        <v>26</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>11</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>23</v>
       </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AK16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY16" t="n">
         <v>34</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
         <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OS21lG04</t>
+          <t>QJmodyY8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
         <v>6</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
         <v>8.5</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
         <v>8</v>
       </c>
-      <c r="Z17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX17" t="n">
         <v>17</v>
       </c>
-      <c r="AF17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>32</v>
-      </c>
       <c r="AY17" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OviKFS5Q</t>
+          <t>OS21lG04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K18" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>21</v>
+        <v>8.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="V18" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="W18" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>8.25</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AS18" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="BC18" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lUKI0vv1</t>
+          <t>OviKFS5Q</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,67 +3832,67 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="I19" t="n">
         <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="L19" t="n">
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3901,31 +3901,31 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE19" t="n">
         <v>13</v>
       </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3937,55 +3937,55 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
         <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pdERbI8D</t>
+          <t>lUKI0vv1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,160 +4014,160 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.38</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
       </c>
       <c r="AI20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX20" t="n">
         <v>23</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM20" t="n">
+      <c r="AY20" t="n">
         <v>29</v>
       </c>
-      <c r="AN20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
+      <c r="AZ20" t="n">
         <v>81</v>
       </c>
-      <c r="AT20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ba29N1oE</t>
+          <t>pdERbI8D</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,64 +4196,64 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -4262,58 +4262,58 @@
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
         <v>17</v>
       </c>
-      <c r="AC21" t="n">
-        <v>21</v>
-      </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP21" t="n">
         <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4322,7 +4322,7 @@
         <v>81</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4331,25 +4331,25 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
         <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00rnBnEs</t>
+          <t>ba29N1oE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,160 +4378,160 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>21</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R22" t="n">
         <v>2.7</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="S22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W22" t="n">
         <v>12</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>10</v>
-      </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
         <v>26</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>26</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
         <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>65FNabg7</t>
+          <t>00rnBnEs</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,148 +4560,148 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>21</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6</v>
-      </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T23" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
         <v>19</v>
       </c>
-      <c r="AA23" t="n">
-        <v>13</v>
-      </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
         <v>21</v>
       </c>
-      <c r="AD23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>23</v>
-      </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" t="n">
         <v>15</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>17</v>
-      </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
         <v>51</v>
@@ -4710,19 +4710,19 @@
         <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD23" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C26DML0K</t>
+          <t>65FNabg7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4742,124 +4742,124 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
+        <v>21</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W24" t="n">
+        <v>12</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
         <v>17</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
       </c>
       <c r="AD24" t="n">
         <v>8.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4868,43 +4868,43 @@
         <v>81</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
         <v>101</v>
       </c>
-      <c r="BB24" t="n">
-        <v>151</v>
-      </c>
       <c r="BC24" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fReILuGQ</t>
+          <t>C26DML0K</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,31 +4924,31 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6.25</v>
       </c>
       <c r="J25" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4957,43 +4957,43 @@
         <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA25" t="n">
         <v>11</v>
-      </c>
-      <c r="X25" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>21</v>
@@ -5002,82 +5002,82 @@
         <v>17</v>
       </c>
       <c r="AD25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AP25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY25" t="n">
         <v>29</v>
       </c>
-      <c r="AL25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dzrpHaOs</t>
+          <t>fReILuGQ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5106,169 +5106,169 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.3</v>
       </c>
-      <c r="R26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.18</v>
-      </c>
       <c r="T26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W26" t="n">
+        <v>10</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN26" t="n">
         <v>4.5</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="AO26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT26" t="n">
         <v>3.4</v>
       </c>
-      <c r="W26" t="n">
-        <v>17</v>
-      </c>
-      <c r="X26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN26" t="n">
+      <c r="AU26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW26" t="n">
         <v>5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>6</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BC26" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD26" t="n">
         <v>151</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>40slGJwl</t>
+          <t>dzrpHaOs</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,169 +5288,169 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O27" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="R27" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="V27" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
       </c>
       <c r="AC27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH27" t="n">
         <v>21</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP27" t="n">
         <v>13</v>
       </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN27" t="n">
+      <c r="AQ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT27" t="n">
         <v>4.5</v>
       </c>
-      <c r="AO27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>4</v>
-      </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AW27" t="n">
         <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB27" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC27" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rithFwgf</t>
+          <t>40slGJwl</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5470,169 +5470,169 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>21</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P28" t="n">
         <v>6</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>26</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>7</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="R28" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="S28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
+        <v>13</v>
+      </c>
+      <c r="X28" t="n">
         <v>12</v>
       </c>
-      <c r="X28" t="n">
-        <v>10</v>
-      </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB28" t="n">
         <v>17</v>
       </c>
       <c r="AC28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
         <v>26</v>
       </c>
-      <c r="AD28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AM28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP28" t="n">
         <v>15</v>
       </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
+      <c r="AQ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
         <v>101</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>126</v>
       </c>
       <c r="BC28" t="n">
         <v>251</v>
       </c>
       <c r="BD28" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>QFVdEc80</t>
+          <t>rithFwgf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,64 +5652,64 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K29" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="R29" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="S29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X29" t="n">
         <v>10</v>
@@ -5718,43 +5718,43 @@
         <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD29" t="n">
         <v>11</v>
       </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
         <v>101</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="n">
         <v>34</v>
@@ -5763,22 +5763,22 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU29" t="n">
         <v>7.5</v>
@@ -5787,25 +5787,25 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
         <v>126</v>
       </c>
       <c r="BC29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD29" t="n">
         <v>176</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vJZ0DHN6</t>
+          <t>QFVdEc80</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5834,88 +5834,88 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="K30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>21</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.38</v>
       </c>
-      <c r="L30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>15</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC30" t="n">
         <v>21</v>
       </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>34</v>
@@ -5924,79 +5924,79 @@
         <v>101</v>
       </c>
       <c r="AH30" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>17</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX30" t="n">
         <v>23</v>
       </c>
-      <c r="AN30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>15</v>
-      </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC30" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>rPXjA6Tm</t>
+          <t>vJZ0DHN6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6016,97 +6016,97 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T31" t="n">
         <v>3.5</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W31" t="n">
+        <v>12</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
         <v>9.5</v>
       </c>
-      <c r="X31" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9</v>
-      </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA31" t="n">
         <v>17</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
         <v>7</v>
       </c>
       <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH31" t="n">
         <v>13</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>17</v>
@@ -6118,19 +6118,19 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6139,13 +6139,13 @@
         <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>41</v>
@@ -6157,21 +6157,203 @@
         <v>15</v>
       </c>
       <c r="AY31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>rPXjA6Tm</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>02/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
         <v>23</v>
       </c>
-      <c r="AZ31" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA31" t="n">
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA32" t="n">
         <v>67</v>
       </c>
-      <c r="BB31" t="n">
+      <c r="BB32" t="n">
         <v>151</v>
       </c>
-      <c r="BC31" t="n">
+      <c r="BC32" t="n">
         <v>501</v>
       </c>
-      <c r="BD31" t="n">
+      <c r="BD32" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -771,46 +771,46 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -828,16 +828,16 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -846,31 +846,31 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
         <v>4.75</v>
@@ -879,19 +879,19 @@
         <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -932,25 +932,25 @@
         <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,22 +959,22 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -995,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1040,13 +1040,13 @@
         <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1073,7 +1073,7 @@
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1308,7 +1308,7 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1383,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1392,10 +1392,10 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1413,7 +1413,7 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1672,13 +1672,13 @@
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1705,7 +1705,7 @@
         <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1717,7 +1717,7 @@
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
@@ -1741,7 +1741,7 @@
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
@@ -1762,7 +1762,7 @@
         <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1842,19 +1842,19 @@
         <v>1.25</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.65</v>
       </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1875,25 +1875,25 @@
         <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T8" t="n">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W8" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
         <v>6.8</v>
@@ -1902,52 +1902,52 @@
         <v>8.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
         <v>3.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AP8" t="n">
         <v>14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR8" t="n">
         <v>35</v>
@@ -1959,19 +1959,19 @@
         <v>3.55</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AX8" t="n">
         <v>50</v>
       </c>
       <c r="AY8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ8" t="n">
         <v>350</v>
@@ -2021,37 +2021,37 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="H9" t="n">
         <v>2.92</v>
       </c>
       <c r="I9" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>1.65</v>
@@ -2063,16 +2063,16 @@
         <v>2.52</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W9" t="n">
         <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>5.7</v>
@@ -2096,34 +2096,34 @@
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG9" t="n">
         <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>22</v>
       </c>
       <c r="AM9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN9" t="n">
         <v>4.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>19.5</v>
@@ -2132,28 +2132,28 @@
         <v>65</v>
       </c>
       <c r="AR9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS9" t="n">
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ9" t="n">
         <v>55</v>
@@ -2567,55 +2567,55 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
         <v>2.05</v>
       </c>
       <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.2</v>
       </c>
-      <c r="L12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>6</v>
@@ -2627,31 +2627,31 @@
         <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
@@ -2660,19 +2660,19 @@
         <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
         <v>67</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO12" t="n">
         <v>7.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>23</v>
@@ -2681,34 +2681,34 @@
         <v>51</v>
       </c>
       <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA12" t="n">
         <v>201</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>251</v>
-      </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2755,7 +2755,7 @@
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
         <v>2.88</v>
@@ -2767,10 +2767,10 @@
         <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2821,7 +2821,7 @@
         <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2836,7 +2836,7 @@
         <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
@@ -2878,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
         <v>2.2</v>
@@ -2955,10 +2955,10 @@
         <v>26</v>
       </c>
       <c r="O14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
         <v>1.3</v>
@@ -2967,28 +2967,28 @@
         <v>3.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
         <v>15</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2997,7 +2997,7 @@
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
@@ -3006,13 +3006,13 @@
         <v>11</v>
       </c>
       <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="n">
         <v>26</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
@@ -3027,43 +3027,43 @@
         <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
         <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW14" t="n">
         <v>7</v>
       </c>
-      <c r="AV14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
         <v>51</v>
@@ -3075,7 +3075,7 @@
         <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.83</v>
       </c>
       <c r="K15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.18</v>
@@ -3143,55 +3143,55 @@
         <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
         <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -3209,16 +3209,16 @@
         <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO15" t="n">
         <v>6.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
@@ -3230,10 +3230,10 @@
         <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3245,22 +3245,22 @@
         <v>34</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
         <v>9</v>
@@ -3319,10 +3319,10 @@
         <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
         <v>1.33</v>
@@ -3364,7 +3364,7 @@
         <v>26</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>21</v>
@@ -3373,7 +3373,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
         <v>29</v>
@@ -3382,7 +3382,7 @@
         <v>51</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
@@ -3415,7 +3415,7 @@
         <v>4.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>41</v>
@@ -3495,22 +3495,22 @@
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -4047,16 +4047,16 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
         <v>1.33</v>
@@ -4408,7 +4408,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
@@ -4575,7 +4575,7 @@
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -4584,13 +4584,13 @@
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -4656,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
         <v>29</v>
@@ -4707,7 +4707,7 @@
         <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB23" t="n">
         <v>126</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>4.33</v>
@@ -4981,7 +4981,7 @@
         <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
         <v>9</v>
@@ -4996,7 +4996,7 @@
         <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
         <v>17</v>
@@ -5005,13 +5005,13 @@
         <v>8.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -5118,55 +5118,55 @@
         <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
@@ -5178,25 +5178,25 @@
         <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5211,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN26" t="n">
         <v>4.5</v>
@@ -5229,13 +5229,13 @@
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
         <v>41</v>
@@ -5253,13 +5253,13 @@
         <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
         <v>126</v>
       </c>
       <c r="BC26" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5843,10 +5843,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -5855,10 +5855,10 @@
         <v>2.05</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -5867,16 +5867,16 @@
         <v>21</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R30" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S30" t="n">
         <v>1.22</v>
@@ -5906,19 +5906,19 @@
         <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
         <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
         <v>101</v>
@@ -5927,7 +5927,7 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
@@ -5945,7 +5945,7 @@
         <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5969,7 +5969,7 @@
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX30" t="n">
         <v>23</v>
@@ -5981,7 +5981,7 @@
         <v>67</v>
       </c>
       <c r="BA30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB30" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
@@ -950,7 +950,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -965,22 +965,22 @@
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1001,13 +1001,13 @@
         <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1040,13 +1040,13 @@
         <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1177,10 +1177,10 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1207,13 +1207,13 @@
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1362,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1371,10 +1371,10 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1842,19 +1842,19 @@
         <v>1.25</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="J8" t="n">
         <v>1.65</v>
       </c>
       <c r="K8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1866,7 +1866,7 @@
         <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1875,40 +1875,40 @@
         <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T8" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
         <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA8" t="n">
         <v>8.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE8" t="n">
         <v>17.5</v>
@@ -1920,7 +1920,7 @@
         <v>400</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>50</v>
@@ -1929,10 +1929,10 @@
         <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
@@ -1944,10 +1944,10 @@
         <v>5.3</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>35</v>
@@ -1965,7 +1965,7 @@
         <v>70</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AX8" t="n">
         <v>50</v>
@@ -1974,7 +1974,7 @@
         <v>45</v>
       </c>
       <c r="AZ8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BA8" t="n">
         <v>300</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
         <v>2.92</v>
       </c>
       <c r="I9" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2063,28 +2063,28 @@
         <v>2.52</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Z9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB9" t="n">
         <v>35</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -2093,52 +2093,52 @@
         <v>5.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF9" t="n">
         <v>65</v>
       </c>
       <c r="AG9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AI9" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>32</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU9" t="n">
         <v>6.3</v>
@@ -2147,16 +2147,16 @@
         <v>50</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA9" t="n">
         <v>75</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2227,22 +2227,22 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -2251,22 +2251,22 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA10" t="n">
         <v>41</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -2275,25 +2275,25 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>900</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>15</v>
@@ -2302,43 +2302,43 @@
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
@@ -2567,82 +2567,82 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>9</v>
       </c>
-      <c r="Z12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
         <v>101</v>
@@ -2654,25 +2654,25 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP12" t="n">
         <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>23</v>
@@ -2681,31 +2681,31 @@
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX12" t="n">
         <v>41</v>
       </c>
       <c r="AY12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB12" t="n">
         <v>351</v>
@@ -2767,10 +2767,10 @@
         <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
         <v>2.2</v>
@@ -2946,7 +2946,7 @@
         <v>2.75</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2955,10 +2955,10 @@
         <v>26</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="n">
         <v>1.3</v>
@@ -2967,10 +2967,10 @@
         <v>3.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U14" t="n">
         <v>1.33</v>
@@ -2988,7 +2988,7 @@
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2997,7 +2997,7 @@
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
@@ -3009,10 +3009,10 @@
         <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
@@ -3027,19 +3027,19 @@
         <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
         <v>4.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR14" t="n">
         <v>29</v>
@@ -3048,22 +3048,22 @@
         <v>51</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU14" t="n">
         <v>6.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AW14" t="n">
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>51</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.62</v>
@@ -3364,7 +3364,7 @@
         <v>26</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>21</v>
@@ -3382,7 +3382,7 @@
         <v>51</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
@@ -3415,7 +3415,7 @@
         <v>4.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>41</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -3507,25 +3507,25 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -3537,19 +3537,19 @@
         <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3558,7 +3558,7 @@
         <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>13</v>
@@ -3573,10 +3573,10 @@
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3588,19 +3588,19 @@
         <v>51</v>
       </c>
       <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
         <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>4.75</v>
@@ -3618,7 +3618,7 @@
         <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3659,34 +3659,34 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q18" t="n">
         <v>1.65</v>
@@ -3695,79 +3695,79 @@
         <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W18" t="n">
         <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>11.25</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE18" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
         <v>120</v>
       </c>
       <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
         <v>60</v>
       </c>
-      <c r="AM18" t="n">
-        <v>55</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AR18" t="n">
         <v>45</v>
@@ -3776,31 +3776,31 @@
         <v>200</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW18" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AX18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ18" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA18" t="n">
         <v>250</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3865,10 +3865,10 @@
         <v>21</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.4</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4059,22 +4059,22 @@
         <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
@@ -4083,28 +4083,28 @@
         <v>13</v>
       </c>
       <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE20" t="n">
         <v>13</v>
       </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
       <c r="AF20" t="n">
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4119,19 +4119,19 @@
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4140,16 +4140,16 @@
         <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4167,7 +4167,7 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4408,7 +4408,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
@@ -4575,7 +4575,7 @@
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -4584,13 +4584,13 @@
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -4656,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>29</v>
@@ -4707,7 +4707,7 @@
         <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
         <v>126</v>
@@ -5145,10 +5145,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5485,13 +5485,13 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
         <v>2.38</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L28" t="n">
         <v>3.75</v>
@@ -5530,13 +5530,13 @@
         <v>13</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>13</v>
@@ -5572,7 +5572,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM28" t="n">
         <v>23</v>
@@ -5587,7 +5587,7 @@
         <v>15</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR28" t="n">
         <v>41</v>
@@ -5608,10 +5608,10 @@
         <v>6</v>
       </c>
       <c r="AX28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY28" t="n">
         <v>19</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>21</v>
       </c>
       <c r="AZ28" t="n">
         <v>51</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
         <v>4.75</v>
@@ -5852,19 +5852,19 @@
         <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>2.63</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O30" t="n">
         <v>1.11</v>
@@ -5873,10 +5873,10 @@
         <v>6.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R30" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S30" t="n">
         <v>1.22</v>
@@ -5885,16 +5885,16 @@
         <v>4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
+        <v>12</v>
+      </c>
+      <c r="X30" t="n">
         <v>11</v>
-      </c>
-      <c r="X30" t="n">
-        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
@@ -5909,16 +5909,16 @@
         <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
         <v>101</v>
@@ -5927,10 +5927,10 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>51</v>
@@ -5939,7 +5939,7 @@
         <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
@@ -5948,7 +5948,7 @@
         <v>7.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>21</v>
@@ -5957,13 +5957,13 @@
         <v>34</v>
       </c>
       <c r="AS30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="n">
         <v>41</v>
@@ -5981,13 +5981,13 @@
         <v>67</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD30" t="n">
         <v>176</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -789,13 +789,13 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -828,19 +828,19 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2.25</v>
@@ -950,7 +950,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1037,10 +1037,10 @@
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
@@ -1073,7 +1073,7 @@
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,10 +1335,10 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1362,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1374,7 +1374,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1839,34 +1839,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L8" t="n">
         <v>8.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1875,28 +1875,28 @@
         <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="T8" t="n">
-        <v>3.65</v>
+        <v>4.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="W8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AA8" t="n">
         <v>8.75</v>
@@ -1905,49 +1905,49 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
         <v>400</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AL8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM8" t="n">
         <v>75</v>
       </c>
-      <c r="AM8" t="n">
-        <v>60</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AR8" t="n">
         <v>35</v>
@@ -1956,28 +1956,28 @@
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AX8" t="n">
         <v>70</v>
       </c>
-      <c r="AW8" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>50</v>
       </c>
-      <c r="AY8" t="n">
-        <v>45</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="BA8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB8" t="n">
         <v>500</v>
@@ -2024,16 +2024,16 @@
         <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L9" t="n">
         <v>2.9</v>
@@ -2042,37 +2042,37 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="W9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10.75</v>
@@ -2081,79 +2081,79 @@
         <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AX9" t="n">
         <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>50</v>
@@ -2162,7 +2162,7 @@
         <v>75</v>
       </c>
       <c r="BB9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2245,13 +2245,13 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -2263,7 +2263,7 @@
         <v>67</v>
       </c>
       <c r="AA10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB10" t="n">
         <v>51</v>
@@ -2272,22 +2272,22 @@
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
@@ -2296,16 +2296,16 @@
         <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP10" t="n">
         <v>41</v>
@@ -2317,7 +2317,7 @@
         <v>151</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
         <v>2.75</v>
@@ -2329,10 +2329,10 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
@@ -2397,76 +2397,76 @@
         <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
         <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
         <v>900</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
         <v>21</v>
@@ -2481,7 +2481,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>3.75</v>
@@ -2490,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2502,10 +2502,10 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2523,10 +2523,10 @@
         <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
         <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,46 +2597,46 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2648,13 +2648,13 @@
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>101</v>
@@ -2672,10 +2672,10 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,16 +2684,16 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>41</v>
@@ -2770,19 +2770,19 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.22</v>
@@ -2955,10 +2955,10 @@
         <v>26</v>
       </c>
       <c r="O14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
         <v>1.3</v>
@@ -3301,7 +3301,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
         <v>1.62</v>
@@ -3319,10 +3319,10 @@
         <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q16" t="n">
         <v>1.33</v>
@@ -3373,7 +3373,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
         <v>29</v>
@@ -3498,7 +3498,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -3507,10 +3507,10 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>1.5</v>
@@ -3519,13 +3519,13 @@
         <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -3549,13 +3549,13 @@
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
@@ -3591,7 +3591,7 @@
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
         <v>2.5</v>
@@ -3665,13 +3665,13 @@
         <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K18" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L18" t="n">
         <v>6.1</v>
@@ -3680,67 +3680,67 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD18" t="n">
         <v>8.75</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>45</v>
@@ -3749,7 +3749,7 @@
         <v>20</v>
       </c>
       <c r="AK18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
@@ -3758,34 +3758,34 @@
         <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
         <v>6.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS18" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AX18" t="n">
         <v>37</v>
@@ -3800,7 +3800,7 @@
         <v>250</v>
       </c>
       <c r="BB18" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H19" t="n">
         <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>2.05</v>
@@ -3859,10 +3859,10 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
         <v>1.11</v>
@@ -3907,7 +3907,7 @@
         <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD19" t="n">
         <v>9.5</v>
@@ -3943,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP19" t="n">
         <v>13</v>
@@ -3955,7 +3955,7 @@
         <v>34</v>
       </c>
       <c r="AS19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
@@ -3982,10 +3982,10 @@
         <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
         <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4047,16 +4047,16 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="n">
         <v>1.3</v>
@@ -4065,13 +4065,13 @@
         <v>3.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>9</v>
@@ -4083,7 +4083,7 @@
         <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
@@ -4095,7 +4095,7 @@
         <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
@@ -4104,7 +4104,7 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4125,13 +4125,13 @@
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4146,10 +4146,10 @@
         <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4167,7 +4167,7 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
@@ -4590,7 +4590,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -4623,16 +4623,16 @@
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
@@ -4650,7 +4650,7 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
@@ -4659,7 +4659,7 @@
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4668,7 +4668,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
@@ -4695,7 +4695,7 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
@@ -4704,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -4787,19 +4787,19 @@
         <v>2.7</v>
       </c>
       <c r="S24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -4835,10 +4835,10 @@
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>41</v>
@@ -4853,7 +4853,7 @@
         <v>4.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4868,7 +4868,7 @@
         <v>81</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>7</v>
@@ -4892,7 +4892,7 @@
         <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
         <v>251</v>
@@ -4951,10 +4951,10 @@
         <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O25" t="n">
         <v>1.14</v>
@@ -4999,13 +4999,13 @@
         <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="n">
         <v>8.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -5044,7 +5044,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
         <v>81</v>
@@ -5065,7 +5065,7 @@
         <v>26</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ25" t="n">
         <v>81</v>
@@ -5077,7 +5077,7 @@
         <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K27" t="n">
         <v>2.63</v>
@@ -5381,7 +5381,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5402,10 +5402,10 @@
         <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5423,10 +5423,10 @@
         <v>29</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -980,7 +980,7 @@
         <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1001,7 +1001,7 @@
         <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1031,16 +1031,16 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1073,7 +1073,7 @@
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1437,7 +1437,7 @@
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -2027,31 +2027,31 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
         <v>1.98</v>
       </c>
       <c r="L9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
         <v>1.7</v>
@@ -2069,43 +2069,43 @@
         <v>1.93</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
         <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD9" t="n">
         <v>5.8</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG9" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
@@ -2114,52 +2114,52 @@
         <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT9" t="n">
         <v>2.42</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>
@@ -2385,82 +2385,82 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.44</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>1.57</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.53</v>
       </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>900</v>
@@ -2472,10 +2472,10 @@
         <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2484,13 +2484,13 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2499,31 +2499,31 @@
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
         <v>351</v>
@@ -2585,10 +2585,10 @@
         <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>2.45</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.5</v>
@@ -2779,22 +2779,22 @@
         <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
         <v>15</v>
@@ -2812,22 +2812,22 @@
         <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="n">
         <v>15</v>
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>5</v>
@@ -2866,13 +2866,13 @@
         <v>81</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>5</v>
@@ -2893,7 +2893,7 @@
         <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2931,85 +2931,85 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
         <v>2.75</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
+        <v>23</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
         <v>26</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>17</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AE14" t="n">
         <v>12</v>
       </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
         <v>29</v>
       </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
       <c r="AG14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -3021,19 +3021,19 @@
         <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
         <v>26</v>
       </c>
-      <c r="AM14" t="n">
-        <v>23</v>
-      </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -3042,16 +3042,16 @@
         <v>21</v>
       </c>
       <c r="AR14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>34</v>
@@ -3060,10 +3060,10 @@
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
         <v>51</v>
@@ -3072,10 +3072,10 @@
         <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3122,7 +3122,7 @@
         <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -3137,16 +3137,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3161,7 +3161,7 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -3170,13 +3170,13 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA15" t="n">
         <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -3221,7 +3221,7 @@
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3233,7 +3233,7 @@
         <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3248,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA15" t="n">
         <v>151</v>
@@ -3295,64 +3295,64 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L16" t="n">
         <v>7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>8.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA16" t="n">
         <v>10</v>
@@ -3361,31 +3361,31 @@
         <v>21</v>
       </c>
       <c r="AC16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
         <v>26</v>
       </c>
-      <c r="AD16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AI16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>21</v>
       </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
       <c r="AK16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="n">
         <v>51</v>
@@ -3397,13 +3397,13 @@
         <v>3.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3412,31 +3412,31 @@
         <v>81</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
       </c>
       <c r="AZ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
         <v>151</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>201</v>
       </c>
       <c r="BC16" t="n">
         <v>351</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -3525,7 +3525,7 @@
         <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -3537,13 +3537,13 @@
         <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
@@ -3561,13 +3561,13 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>26</v>
@@ -3579,7 +3579,7 @@
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3588,7 +3588,7 @@
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
         <v>201</v>
@@ -3600,10 +3600,10 @@
         <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I18" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="K18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3689,28 +3689,28 @@
         <v>4.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S18" t="n">
         <v>1.31</v>
       </c>
       <c r="T18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U18" t="n">
         <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -3719,7 +3719,7 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="n">
         <v>22</v>
@@ -3728,46 +3728,46 @@
         <v>8.75</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG18" t="n">
         <v>450</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>45</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK18" t="n">
         <v>150</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN18" t="n">
         <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AP18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR18" t="n">
         <v>40</v>
@@ -3776,31 +3776,31 @@
         <v>175</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW18" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AX18" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY18" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AZ18" t="n">
         <v>250</v>
       </c>
       <c r="BA18" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3859,22 +3859,22 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O19" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.22</v>
@@ -4223,10 +4223,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
@@ -4235,10 +4235,10 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.29</v>
@@ -4534,7 +4534,7 @@
         <v>251</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -4775,16 +4775,16 @@
         <v>21</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R24" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S24" t="n">
         <v>1.22</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K25" t="n">
         <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4975,16 +4975,16 @@
         <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W25" t="n">
         <v>10</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -5020,19 +5020,19 @@
         <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>7.5</v>
@@ -5044,7 +5044,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS25" t="n">
         <v>81</v>
@@ -5059,7 +5059,7 @@
         <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
         <v>26</v>
@@ -5074,7 +5074,7 @@
         <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC25" t="n">
         <v>351</v>
@@ -6207,28 +6207,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
         <v>1.22</v>
@@ -6243,10 +6243,10 @@
         <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
         <v>1.62</v>
@@ -6261,10 +6261,10 @@
         <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
         <v>17</v>
@@ -6273,10 +6273,10 @@
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -6291,7 +6291,7 @@
         <v>11</v>
       </c>
       <c r="AI32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ32" t="n">
         <v>11</v>
@@ -6309,7 +6309,7 @@
         <v>4.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
@@ -6324,13 +6324,13 @@
         <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU32" t="n">
         <v>7.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW32" t="n">
         <v>5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>2.8</v>
@@ -765,22 +765,22 @@
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -789,13 +789,13 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -807,31 +807,31 @@
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
         <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4.75</v>
@@ -894,7 +894,7 @@
         <v>451</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
@@ -944,13 +944,13 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -995,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1159,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1183,10 +1183,10 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1210,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1240,16 +1240,16 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
@@ -1296,7 +1296,7 @@
         <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>3.4</v>
@@ -1305,28 +1305,28 @@
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,16 +1335,16 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1356,10 +1356,10 @@
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
         <v>10</v>
@@ -1422,10 +1422,10 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>67</v>
@@ -1437,7 +1437,7 @@
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -2030,13 +2030,13 @@
         <v>2.32</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2051,10 +2051,10 @@
         <v>2.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>1.42</v>
@@ -2063,28 +2063,28 @@
         <v>2.47</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W9" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z9" t="n">
         <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC9" t="n">
         <v>8.75</v>
@@ -2096,16 +2096,16 @@
         <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
         <v>450</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
@@ -2114,31 +2114,31 @@
         <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU9" t="n">
         <v>6.6</v>
@@ -2150,16 +2150,16 @@
         <v>4.25</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>1.95</v>
@@ -2582,13 +2582,13 @@
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,28 +2597,28 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
@@ -2627,28 +2627,28 @@
         <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="n">
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
@@ -2657,22 +2657,22 @@
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
         <v>81</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>21</v>
@@ -2684,10 +2684,10 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
@@ -2702,10 +2702,10 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
         <v>351</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.2</v>
@@ -4038,7 +4038,7 @@
         <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4053,10 +4053,10 @@
         <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
         <v>1.3</v>
@@ -4074,7 +4074,7 @@
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
@@ -4083,16 +4083,16 @@
         <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4104,10 +4104,10 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
@@ -4116,22 +4116,22 @@
         <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4143,16 +4143,16 @@
         <v>3.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4223,10 +4223,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
@@ -4235,10 +4235,10 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
         <v>1.29</v>
@@ -4408,7 +4408,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
@@ -4754,16 +4754,16 @@
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L24" t="n">
         <v>3.6</v>
@@ -4817,7 +4817,7 @@
         <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
         <v>8.5</v>
@@ -4832,10 +4832,10 @@
         <v>81</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -4847,7 +4847,7 @@
         <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
         <v>4.5</v>
@@ -4865,16 +4865,16 @@
         <v>41</v>
       </c>
       <c r="AS24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT24" t="n">
         <v>4</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW24" t="n">
         <v>6</v>
@@ -4895,10 +4895,10 @@
         <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD24" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5157,16 +5157,16 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
@@ -5205,22 +5205,22 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM26" t="n">
         <v>29</v>
       </c>
-      <c r="AL26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>26</v>
-      </c>
       <c r="AN26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -5238,16 +5238,16 @@
         <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
         <v>51</v>
@@ -5256,10 +5256,10 @@
         <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC26" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5500,7 +5500,7 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O28" t="n">
         <v>1.13</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6231,16 +6231,16 @@
         <v>12</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>
@@ -6249,13 +6249,13 @@
         <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -6264,7 +6264,7 @@
         <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
         <v>17</v>
@@ -6300,7 +6300,7 @@
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM32" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2063,10 +2063,10 @@
         <v>2.47</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W9" t="n">
         <v>9</v>
@@ -2090,19 +2090,19 @@
         <v>8.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2120,13 +2120,13 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>90</v>
@@ -2138,22 +2138,22 @@
         <v>300</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ9" t="n">
         <v>50</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
         <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>2.63</v>
       </c>
       <c r="L19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
         <v>1.13</v>
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S19" t="n">
         <v>1.22</v>
@@ -3883,13 +3883,13 @@
         <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
         <v>10</v>
@@ -3904,19 +3904,19 @@
         <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
         <v>23</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
         <v>101</v>
@@ -3925,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3955,19 +3955,19 @@
         <v>34</v>
       </c>
       <c r="AS19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX19" t="n">
         <v>23</v>
@@ -3976,16 +3976,16 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4023,19 +4023,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
@@ -4047,16 +4047,16 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
         <v>1.3</v>
@@ -4080,7 +4080,7 @@
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
@@ -4089,10 +4089,10 @@
         <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4110,7 +4110,7 @@
         <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
@@ -4161,7 +4161,7 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
@@ -4223,10 +4223,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
@@ -4235,10 +4235,10 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.29</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
         <v>2.6</v>
@@ -4408,7 +4408,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
@@ -4456,7 +4456,7 @@
         <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4465,13 +4465,13 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="n">
         <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
@@ -4590,7 +4590,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -4599,10 +4599,10 @@
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S23" t="n">
         <v>1.33</v>
@@ -4623,19 +4623,19 @@
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4650,7 +4650,7 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
@@ -4659,7 +4659,7 @@
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4668,7 +4668,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
@@ -4695,7 +4695,7 @@
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
@@ -4704,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>
@@ -4713,7 +4713,7 @@
         <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
         <v>2.6</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -4775,10 +4775,10 @@
         <v>21</v>
       </c>
       <c r="O24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
         <v>1.4</v>
@@ -4799,19 +4799,19 @@
         <v>2.75</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -4826,40 +4826,40 @@
         <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
         <v>81</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4877,16 +4877,16 @@
         <v>34</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY24" t="n">
         <v>17</v>
       </c>
-      <c r="AY24" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
         <v>51</v>
@@ -4898,7 +4898,7 @@
         <v>201</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>2.6</v>
@@ -4984,7 +4984,7 @@
         <v>10</v>
       </c>
       <c r="X25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -5020,7 +5020,7 @@
         <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>51</v>
@@ -5032,7 +5032,7 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
         <v>7.5</v>
@@ -5044,7 +5044,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
         <v>81</v>
@@ -5059,7 +5059,7 @@
         <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX25" t="n">
         <v>26</v>
@@ -5074,7 +5074,7 @@
         <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
         <v>351</v>
@@ -5139,10 +5139,10 @@
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
         <v>1.75</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
         <v>2.63</v>
@@ -5312,13 +5312,13 @@
         <v>2.63</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O27" t="n">
         <v>1.08</v>
@@ -5345,16 +5345,16 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
@@ -5372,7 +5372,7 @@
         <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>51</v>
@@ -5396,13 +5396,13 @@
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO27" t="n">
         <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>34</v>
@@ -5479,28 +5479,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
         <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O28" t="n">
         <v>1.13</v>
@@ -5560,13 +5560,13 @@
         <v>81</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
         <v>41</v>
@@ -5581,7 +5581,7 @@
         <v>4.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP28" t="n">
         <v>15</v>
@@ -5661,28 +5661,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L29" t="n">
         <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O29" t="n">
         <v>1.1</v>
@@ -5703,22 +5703,22 @@
         <v>4.33</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
         <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -5727,19 +5727,19 @@
         <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="n">
         <v>26</v>
@@ -5763,13 +5763,13 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP29" t="n">
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR29" t="n">
         <v>29</v>
@@ -5787,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX29" t="n">
         <v>29</v>
@@ -5796,7 +5796,7 @@
         <v>26</v>
       </c>
       <c r="AZ29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
         <v>81</v>
@@ -5867,10 +5867,10 @@
         <v>23</v>
       </c>
       <c r="O30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="n">
         <v>1.36</v>
@@ -6046,7 +6046,7 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O31" t="n">
         <v>1.17</v>
@@ -6225,10 +6225,10 @@
         <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -6237,10 +6237,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2051,10 +2051,10 @@
         <v>2.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.42</v>
@@ -2072,19 +2072,19 @@
         <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="n">
         <v>8.75</v>
@@ -2099,46 +2099,46 @@
         <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
         <v>25</v>
       </c>
-      <c r="AL9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS9" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU9" t="n">
         <v>6.7</v>
@@ -2147,22 +2147,22 @@
         <v>60</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.75</v>
       </c>
-      <c r="I19" t="n">
-        <v>5.25</v>
-      </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O19" t="n">
         <v>1.13</v>
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.22</v>
@@ -3883,10 +3883,10 @@
         <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W19" t="n">
         <v>11</v>
@@ -3907,25 +3907,25 @@
         <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
         <v>101</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3943,10 +3943,10 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
         <v>21</v>
@@ -3961,13 +3961,13 @@
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
         <v>23</v>
@@ -3976,10 +3976,10 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
         <v>126</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
         <v>4.33</v>
@@ -4035,7 +4035,7 @@
         <v>2.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
@@ -4053,25 +4053,25 @@
         <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
         <v>8.5</v>
@@ -4092,7 +4092,7 @@
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4110,7 +4110,7 @@
         <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
@@ -4119,7 +4119,7 @@
         <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>3.75</v>
@@ -4140,13 +4140,13 @@
         <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
         <v>7</v>
@@ -4161,13 +4161,13 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -4241,25 +4241,25 @@
         <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>17</v>
@@ -4271,43 +4271,43 @@
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
         <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
       </c>
       <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
         <v>23</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>26</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>29</v>
       </c>
       <c r="AN21" t="n">
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
         <v>15</v>
@@ -4322,7 +4322,7 @@
         <v>81</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4334,22 +4334,22 @@
         <v>6</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
         <v>3.8</v>
@@ -4399,7 +4399,7 @@
         <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -4408,7 +4408,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
@@ -4417,16 +4417,16 @@
         <v>6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -4447,16 +4447,16 @@
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4465,10 +4465,10 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>23</v>
@@ -4504,7 +4504,7 @@
         <v>81</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU22" t="n">
         <v>7</v>
@@ -4513,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
         <v>19</v>
@@ -4569,79 +4569,79 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
         <v>3</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
         <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4650,73 +4650,73 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>7.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
         <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>
       </c>
       <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD23" t="n">
         <v>126</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4751,91 +4751,91 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L24" t="n">
         <v>3.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="R24" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V24" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE24" t="n">
         <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -4850,16 +4850,16 @@
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4868,7 +4868,7 @@
         <v>67</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU24" t="n">
         <v>6.5</v>
@@ -4877,7 +4877,7 @@
         <v>34</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>15</v>
@@ -4889,13 +4889,13 @@
         <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD24" t="n">
         <v>176</v>
@@ -4936,55 +4936,55 @@
         <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P25" t="n">
         <v>5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N25" t="n">
-        <v>19</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -4996,22 +4996,22 @@
         <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -5023,13 +5023,13 @@
         <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="n">
         <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
         <v>3.75</v>
@@ -5044,16 +5044,16 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
@@ -5065,19 +5065,19 @@
         <v>26</v>
       </c>
       <c r="AY25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
         <v>81</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
         <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
         <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>2.75</v>
@@ -5139,16 +5139,16 @@
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5217,10 +5217,10 @@
         <v>4.33</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
@@ -5241,7 +5241,7 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.63</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -5351,7 +5351,7 @@
         <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
         <v>26</v>
@@ -5384,25 +5384,25 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN27" t="n">
         <v>5.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
         <v>34</v>
@@ -5479,28 +5479,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
         <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O28" t="n">
         <v>1.13</v>
@@ -5521,10 +5521,10 @@
         <v>4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W28" t="n">
         <v>13</v>
@@ -5548,7 +5548,7 @@
         <v>21</v>
       </c>
       <c r="AD28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5563,7 +5563,7 @@
         <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
         <v>5.75</v>
       </c>
       <c r="I29" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K29" t="n">
         <v>2.88</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -5703,10 +5703,10 @@
         <v>4.33</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W29" t="n">
         <v>13</v>
@@ -5718,7 +5718,7 @@
         <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -5733,13 +5733,13 @@
         <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH29" t="n">
         <v>26</v>
@@ -5769,7 +5769,7 @@
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR29" t="n">
         <v>29</v>
@@ -5787,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX29" t="n">
         <v>29</v>
@@ -5796,7 +5796,7 @@
         <v>26</v>
       </c>
       <c r="AZ29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA29" t="n">
         <v>81</v>
@@ -6237,10 +6237,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-02.xlsx
@@ -2021,76 +2021,76 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>45</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2099,61 +2099,61 @@
         <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>5.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR9" t="n">
         <v>100</v>
       </c>
-      <c r="AR9" t="n">
-        <v>150</v>
-      </c>
       <c r="AS9" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="AX9" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ9" t="n">
         <v>45</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
         <v>2.63</v>
@@ -5318,13 +5318,13 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q27" t="n">
         <v>1.3</v>
@@ -5348,16 +5348,16 @@
         <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
@@ -5378,7 +5378,7 @@
         <v>51</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5426,13 +5426,13 @@
         <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
       </c>
       <c r="AZ27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA27" t="n">
         <v>41</v>
@@ -5479,10 +5479,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
         <v>3.4</v>
@@ -5494,7 +5494,7 @@
         <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5509,22 +5509,22 @@
         <v>6</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.44</v>
       </c>
-      <c r="R28" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T28" t="n">
-        <v>4</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.4</v>
-      </c>
       <c r="V28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
         <v>13</v>
@@ -5542,7 +5542,7 @@
         <v>13</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
         <v>21</v>
@@ -5596,7 +5596,7 @@
         <v>81</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I29" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="K29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -5685,28 +5685,28 @@
         <v>29</v>
       </c>
       <c r="O29" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R29" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="S29" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T29" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
         <v>13</v>
@@ -5715,10 +5715,10 @@
         <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -5727,76 +5727,76 @@
         <v>17</v>
       </c>
       <c r="AC29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH29" t="n">
         <v>29</v>
       </c>
-      <c r="AD29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
       <c r="AI29" t="n">
         <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="n">
         <v>41</v>
       </c>
       <c r="AM29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>13</v>
       </c>
-      <c r="AQ29" t="n">
-        <v>17</v>
-      </c>
       <c r="AR29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>67</v>
       </c>
       <c r="AT29" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY29" t="n">
         <v>29</v>
       </c>
-      <c r="AY29" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
         <v>81</v>
@@ -5843,28 +5843,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L30" t="n">
         <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O30" t="n">
         <v>1.1</v>
@@ -5873,31 +5873,31 @@
         <v>7</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V30" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>13</v>
@@ -5912,7 +5912,7 @@
         <v>26</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5924,13 +5924,13 @@
         <v>101</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>51</v>
@@ -5951,16 +5951,16 @@
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS30" t="n">
         <v>67</v>
       </c>
       <c r="AT30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
         <v>1.17</v>
@@ -6067,31 +6067,31 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
         <v>7</v>
@@ -6100,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>101</v>
@@ -6109,25 +6109,25 @@
         <v>13</v>
       </c>
       <c r="AI31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL31" t="n">
         <v>17</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>19</v>
-      </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6151,10 +6151,10 @@
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>19</v>
@@ -6169,7 +6169,7 @@
         <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -6231,49 +6231,49 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.88</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W32" t="n">
         <v>9</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA32" t="n">
         <v>21</v>
       </c>
-      <c r="AA32" t="n">
-        <v>17</v>
-      </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
         <v>6.5</v>
@@ -6285,22 +6285,22 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH32" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM32" t="n">
         <v>29</v>
@@ -6312,19 +6312,19 @@
         <v>13</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU32" t="n">
         <v>7.5</v>
@@ -6333,7 +6333,7 @@
         <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX32" t="n">
         <v>15</v>
